--- a/Reportes_datos_numéricos/reporte_2024-05-11_Monterrey.xlsx
+++ b/Reportes_datos_numéricos/reporte_2024-05-11_Monterrey.xlsx
@@ -451,7 +451,7 @@
         <v>89.3</v>
       </c>
       <c r="D2" t="n">
-        <v>116.8</v>
+        <v>119.8</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -465,7 +465,7 @@
         <v>74.3</v>
       </c>
       <c r="D3" t="n">
-        <v>305.6</v>
+        <v>298.4</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -476,10 +476,10 @@
         <v>30.4</v>
       </c>
       <c r="C4" t="n">
-        <v>51.8</v>
+        <v>50.4</v>
       </c>
       <c r="D4" t="n">
-        <v>315.7</v>
+        <v>319.6</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -493,7 +493,7 @@
         <v>66.8</v>
       </c>
       <c r="D5" t="n">
-        <v>299.6</v>
+        <v>296</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -501,27 +501,27 @@
     </row>
     <row r="6">
       <c r="B6" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="C6" t="n">
-        <v>78.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>319.1</v>
+        <v>309</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="C7" t="n">
-        <v>56.7</v>
+        <v>54.2</v>
       </c>
       <c r="D7" t="n">
-        <v>338.3</v>
+        <v>332</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -532,38 +532,38 @@
         <v>29.4</v>
       </c>
       <c r="C8" t="n">
-        <v>59.5</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
-        <v>236.9</v>
+        <v>197.1</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="C9" t="n">
-        <v>61.5</v>
+        <v>64</v>
       </c>
       <c r="D9" t="n">
-        <v>267.2</v>
+        <v>242.1</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="n">
-        <v>26.8</v>
+        <v>27.4</v>
       </c>
       <c r="C10" t="n">
-        <v>63.4</v>
+        <v>63</v>
       </c>
       <c r="D10" t="n">
-        <v>308.7</v>
+        <v>303.1</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28.64666666666666</v>
+        <v>28.70666666666667</v>
       </c>
       <c r="C17" t="n">
-        <v>58.34</v>
+        <v>57.93333333333334</v>
       </c>
       <c r="D17" t="n">
-        <v>291.6066666666667</v>
+        <v>285.5533333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8.733333333333333</v>
       </c>
     </row>
     <row r="18">

--- a/Reportes_datos_numéricos/reporte_2024-05-11_Monterrey.xlsx
+++ b/Reportes_datos_numéricos/reporte_2024-05-11_Monterrey.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
